--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject15.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject15.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,13 +131,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.99800389874655604</v>
       </c>
       <c r="C1" s="0">
-        <v>0</v>
+        <v>0.91956940906341222</v>
       </c>
       <c r="D1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" s="0">
         <v>0</v>
@@ -281,7 +281,7 @@
         <v>0</v>
       </c>
       <c r="AZ1" s="0">
-        <v>0</v>
+        <v>0.52356101908293506</v>
       </c>
       <c r="BA1" s="0">
         <v>0</v>
@@ -290,7 +290,7 @@
         <v>0</v>
       </c>
       <c r="BC1" s="0">
-        <v>0</v>
+        <v>0.81565001018099181</v>
       </c>
       <c r="BD1" s="0">
         <v>0</v>
@@ -329,21 +329,21 @@
         <v>0</v>
       </c>
       <c r="BP1" s="0">
-        <v>0</v>
+        <v>0.63080802881744136</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.7813735760883096</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0.86534691398864649</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -427,7 +427,7 @@
         <v>0</v>
       </c>
       <c r="AF2" s="0">
-        <v>0</v>
+        <v>0.73869846457744526</v>
       </c>
       <c r="AG2" s="0">
         <v>0</v>
@@ -535,24 +535,24 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0.63781044040291657</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0</v>
+        <v>0.51975820591931776</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0</v>
+        <v>0.78884404528224117</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>0.70090550600508728</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="Z3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="0">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="AL3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="0">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="AX3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="0">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="BK3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL3" s="0">
         <v>0</v>
@@ -746,13 +746,13 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0.89747708800335468</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>0.85558679932231008</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0.92767844014155032</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="AI4" s="0">
-        <v>0</v>
+        <v>0.50993340904091555</v>
       </c>
       <c r="AJ4" s="0">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="AM4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0</v>
+        <v>0.65252022449982738</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0.85154001310577798</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="AQ5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR5" s="0">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="AY5" s="0">
-        <v>0</v>
+        <v>0.90517501014504387</v>
       </c>
       <c r="AZ5" s="0">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="BH5" s="0">
-        <v>0</v>
+        <v>0.55867823165764396</v>
       </c>
       <c r="BI5" s="0">
         <v>0</v>
@@ -1167,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0.99914076759258619</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0.78215171857753041</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0</v>
+        <v>0.59135786781686517</v>
       </c>
       <c r="L6" s="0">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="BG6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH6" s="0">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0.89346422619533672</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0.58810795693035312</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0</v>
+        <v>0.82593448234308053</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="0">
-        <v>0</v>
+        <v>0.98283053657728958</v>
       </c>
       <c r="W7" s="0">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="0">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="0">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="AQ7" s="0">
-        <v>0</v>
+        <v>0.59809972824730884</v>
       </c>
       <c r="AR7" s="0">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="AT7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="0">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="BL7" s="0">
-        <v>0</v>
+        <v>0.60025552360789358</v>
       </c>
       <c r="BM7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>0</v>
+        <v>0.98915500464602002</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0.52665449110946327</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.97442870805484194</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="0">
         <v>0</v>
@@ -1797,16 +1797,16 @@
         <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0.57582147103865178</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0.81370635863887131</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0.72826355286717925</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="BO9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP9" s="0">
         <v>0</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.90921328384832933</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0.50019751263494239</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="AG10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="0">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="AL10" s="0">
-        <v>0</v>
+        <v>0.93763259821355138</v>
       </c>
       <c r="AM10" s="0">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="AX10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="0">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="BI10" s="0">
-        <v>0</v>
+        <v>0.50941422811977721</v>
       </c>
       <c r="BJ10" s="0">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="0">
-        <v>0</v>
+        <v>0.56250497338706507</v>
       </c>
       <c r="G11" s="0">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0.56233165548172237</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="0">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="0">
-        <v>0</v>
+        <v>0.87541473987192786</v>
       </c>
       <c r="AL11" s="0">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="BB11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC11" s="0">
         <v>0</v>
@@ -2356,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="BE11" s="0">
-        <v>0</v>
+        <v>0.62391189494184185</v>
       </c>
       <c r="BF11" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.63673903076673499</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0.76367823913134469</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="0">
-        <v>0</v>
+        <v>0.91135416941902525</v>
       </c>
       <c r="T12" s="0">
         <v>0</v>
@@ -2633,16 +2633,16 @@
         <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.93946845063648299</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0</v>
+        <v>0.6203511213475672</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0.53788026759005503</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="0">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="AH13" s="0">
-        <v>0</v>
+        <v>0.62201045924989651</v>
       </c>
       <c r="AI13" s="0">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="BN13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO13" s="0">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0.98768764147763077</v>
       </c>
       <c r="M14" s="0">
-        <v>0</v>
+        <v>0.97278893960390089</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0</v>
+        <v>0.92903291863993187</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="0">
         <v>0</v>
@@ -2899,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="AF14" s="0">
-        <v>0</v>
+        <v>0.72639908930873398</v>
       </c>
       <c r="AG14" s="0">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="BK14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL14" s="0">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="BN14" s="0">
-        <v>0</v>
+        <v>0.72506476399607545</v>
       </c>
       <c r="BO14" s="0">
         <v>0</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0.5891077961554233</v>
       </c>
       <c r="N15" s="0">
-        <v>0</v>
+        <v>0.9178717926436446</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>0</v>
+        <v>0.87914404577499694</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0.82867412729060907</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" s="0">
         <v>0</v>
@@ -3150,13 +3150,13 @@
         <v>0</v>
       </c>
       <c r="AU15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV15" s="0">
         <v>0</v>
       </c>
       <c r="AW15" s="0">
-        <v>0</v>
+        <v>0.73463464661251898</v>
       </c>
       <c r="AX15" s="0">
         <v>0</v>
@@ -3260,13 +3260,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>0</v>
+        <v>0.92043240866822296</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0</v>
+        <v>0.57521332355181998</v>
       </c>
       <c r="R16" s="0">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="AM16" s="0">
-        <v>0</v>
+        <v>0.63285893871190746</v>
       </c>
       <c r="AN16" s="0">
         <v>0</v>
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="BF16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG16" s="0">
         <v>0</v>
@@ -3410,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="BM16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO16" s="0">
         <v>0</v>
@@ -3466,19 +3466,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0.59610640140801441</v>
       </c>
       <c r="P17" s="0">
-        <v>0</v>
+        <v>0.78327874060529323</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0.58744350487491248</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="BP17" s="0">
-        <v>0</v>
+        <v>0.56599725334101048</v>
       </c>
     </row>
     <row r="18">
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="0">
         <v>0</v>
@@ -3678,13 +3678,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0.53718360612160676</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0.55767427339643283</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="AE18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="0">
         <v>0</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="BN18" s="0">
-        <v>0</v>
+        <v>0.58264710022585775</v>
       </c>
       <c r="BO18" s="0">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="0">
-        <v>0</v>
+        <v>0.94696709222551245</v>
       </c>
       <c r="M19" s="0">
         <v>0</v>
@@ -3884,19 +3884,19 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0.86159561540376584</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0.62097284455669932</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="AE19" s="0">
-        <v>0</v>
+        <v>0.79026508947704288</v>
       </c>
       <c r="AF19" s="0">
         <v>0</v>
@@ -4096,16 +4096,16 @@
         <v>0</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0.98247597010592225</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0.87034863654915007</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="0">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0.88718304305517748</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0.60916256590391071</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0.65430581391238751</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.72366701116183196</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="AH21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI21" s="0">
         <v>0</v>
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="0">
-        <v>0</v>
+        <v>0.99014877737842566</v>
       </c>
       <c r="H22" s="0">
         <v>0</v>
@@ -4511,16 +4511,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.71336933069057007</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0.51872043759791986</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.74369267780023318</v>
       </c>
       <c r="X22" s="0">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="0">
         <v>0</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="BG22" s="0">
-        <v>0</v>
+        <v>0.8440965065107624</v>
       </c>
       <c r="BH22" s="0">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.72051057484285685</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.84307581280897748</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0.65106751142542085</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4747,13 +4747,13 @@
         <v>0</v>
       </c>
       <c r="AD23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="0">
         <v>0</v>
       </c>
       <c r="AF23" s="0">
-        <v>0</v>
+        <v>0.59972603266365065</v>
       </c>
       <c r="AG23" s="0">
         <v>0</v>
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="0">
         <v>0</v>
@@ -4932,16 +4932,16 @@
         <v>0</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>0</v>
+        <v>0.83547931422793864</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4974,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="0">
         <v>0</v>
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="BE24" s="0">
-        <v>0</v>
+        <v>0.74469370597889528</v>
       </c>
       <c r="BF24" s="0">
         <v>0</v>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0.60980111126561942</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0.82602411252759311</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0.50757395920496962</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5284,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>0</v>
+        <v>0.73243650070031574</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0.70308753097879018</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0.79643681909913044</v>
       </c>
       <c r="AB26" s="0">
-        <v>0</v>
+        <v>0.79459849699854845</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="BE26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF26" s="0">
         <v>0</v>
@@ -5556,19 +5556,19 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0.87622574375404461</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0.72769673936959522</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0.71521724011527588</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5589,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="0">
-        <v>0</v>
+        <v>0.71242730293447054</v>
       </c>
       <c r="AK27" s="0">
         <v>0</v>
@@ -5625,10 +5625,10 @@
         <v>0</v>
       </c>
       <c r="AV27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW27" s="0">
-        <v>0</v>
+        <v>0.70142521245659162</v>
       </c>
       <c r="AX27" s="0">
         <v>0</v>
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" s="0">
         <v>0</v>
@@ -5765,19 +5765,19 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0</v>
+        <v>0.88783556149878085</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>1</v>
+        <v>0.92558091867663617</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="AO28" s="0">
-        <v>0</v>
+        <v>0.80176957138932048</v>
       </c>
       <c r="AP28" s="0">
         <v>0</v>
@@ -5858,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="BE28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF28" s="0">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="0">
         <v>0</v>
@@ -5974,25 +5974,25 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0.76977543738494325</v>
       </c>
       <c r="AB29" s="0">
-        <v>1</v>
+        <v>0.96868095636096907</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0</v>
+        <v>0.71895950118733443</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0.96284703719937992</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
       </c>
       <c r="AG29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH29" s="0">
         <v>0</v>
@@ -6037,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="AV29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW29" s="0">
         <v>0</v>
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>0</v>
+        <v>0.50927801732015954</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0</v>
+        <v>0.6449613249259496</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0.70193914024598059</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6359,10 +6359,10 @@
         <v>0</v>
       </c>
       <c r="R31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31" s="0">
-        <v>0</v>
+        <v>0.61346623118333365</v>
       </c>
       <c r="T31" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0.56589516059439449</v>
       </c>
       <c r="AD31" s="0">
-        <v>0</v>
+        <v>0.87630119236813964</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0.88854474572399489</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6517,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="0">
-        <v>0</v>
+        <v>0.72974876059083948</v>
       </c>
       <c r="C32" s="0">
         <v>0</v>
@@ -6535,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="0">
         <v>0</v>
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="0">
-        <v>0</v>
+        <v>0.98096953672310272</v>
       </c>
       <c r="O32" s="0">
         <v>0</v>
@@ -6580,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="0">
-        <v>0</v>
+        <v>0.60317504778448594</v>
       </c>
       <c r="X32" s="0">
         <v>0</v>
@@ -6601,16 +6601,16 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0.91942690341689082</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0.55316282535158168</v>
       </c>
       <c r="AH32" s="0">
         <v>0</v>
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="AR32" s="0">
-        <v>0</v>
+        <v>0.66036115520196326</v>
       </c>
       <c r="AS32" s="0">
         <v>0</v>
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="AX32" s="0">
-        <v>0</v>
+        <v>0.95451366387932279</v>
       </c>
       <c r="AY32" s="0">
         <v>0</v>
@@ -6747,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="0">
         <v>0</v>
@@ -6804,25 +6804,25 @@
         <v>0</v>
       </c>
       <c r="AC33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="0">
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0.82435088770238829</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0.64492639066729396</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>0</v>
+        <v>0.93969857976078974</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6873,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="AZ33" s="0">
-        <v>0</v>
+        <v>0.7669036203054922</v>
       </c>
       <c r="BA33" s="0">
         <v>0</v>
@@ -6962,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="0">
-        <v>0</v>
+        <v>0.80572600767189728</v>
       </c>
       <c r="N34" s="0">
         <v>0</v>
@@ -6986,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="U34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34" s="0">
         <v>0</v>
@@ -7022,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0.7854452579590151</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7088,7 +7088,7 @@
         <v>0</v>
       </c>
       <c r="BC34" s="0">
-        <v>0</v>
+        <v>0.89010704102261395</v>
       </c>
       <c r="BD34" s="0">
         <v>0</v>
@@ -7141,7 +7141,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="0">
-        <v>0</v>
+        <v>0.58230124119830595</v>
       </c>
       <c r="E35" s="0">
         <v>0</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0</v>
+        <v>0.69635991124967767</v>
       </c>
       <c r="AH35" s="0">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>0</v>
+        <v>0.94779997319838682</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7261,16 +7261,16 @@
         <v>0</v>
       </c>
       <c r="AR35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS35" s="0">
         <v>0</v>
       </c>
       <c r="AT35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU35" s="0">
-        <v>0</v>
+        <v>0.64287801356959173</v>
       </c>
       <c r="AV35" s="0">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="BK35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL35" s="0">
         <v>0</v>
@@ -7333,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="BP35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -7356,7 +7356,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="0">
         <v>0</v>
@@ -7416,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="AA36" s="0">
-        <v>0</v>
+        <v>0.53864714315944995</v>
       </c>
       <c r="AB36" s="0">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0.55184685086777319</v>
       </c>
       <c r="AI36" s="0">
         <v>0</v>
@@ -7449,13 +7449,13 @@
         <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>0</v>
+        <v>0.91019130103063461</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
       </c>
       <c r="AN36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO36" s="0">
         <v>0</v>
@@ -7574,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="0">
-        <v>0</v>
+        <v>0.67944240583616322</v>
       </c>
       <c r="L37" s="0">
         <v>0</v>
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0</v>
+        <v>0.63283391335435568</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7655,10 +7655,10 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0.98484071412053331</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0.58890301215153196</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7756,7 +7756,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="0">
         <v>0</v>
@@ -7777,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="0">
-        <v>0</v>
+        <v>0.6886382215144935</v>
       </c>
       <c r="K38" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0</v>
+        <v>0.87344005570639172</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0.87488746245957627</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0.62139169824712182</v>
       </c>
       <c r="AN38" s="0">
-        <v>0</v>
+        <v>0.65833314371755924</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7965,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" s="0">
         <v>0</v>
@@ -8001,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="0">
-        <v>0</v>
+        <v>0.84053789440823001</v>
       </c>
       <c r="Q39" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0.7938940162496384</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0.69432201520450798</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0.71569251983808591</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8118,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="BC39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD39" s="0">
         <v>0</v>
@@ -8145,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="BL39" s="0">
-        <v>0</v>
+        <v>0.82510945154178428</v>
       </c>
       <c r="BM39" s="0">
         <v>0</v>
@@ -8267,25 +8267,25 @@
         <v>0</v>
       </c>
       <c r="AJ40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK40" s="0">
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0</v>
+        <v>0.91966266733704805</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0.82657182229935011</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0</v>
+        <v>0.67799394807723612</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0.9288715518210422</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8336,7 +8336,7 @@
         <v>0</v>
       </c>
       <c r="BG40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH40" s="0">
         <v>0</v>
@@ -8449,7 +8449,7 @@
         <v>0</v>
       </c>
       <c r="AB41" s="0">
-        <v>0</v>
+        <v>0.93126653365118595</v>
       </c>
       <c r="AC41" s="0">
         <v>0</v>
@@ -8482,19 +8482,19 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>0</v>
+        <v>0.92888262525691179</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0.92762746238120997</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0.79382429913821262</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8512,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="AW41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX41" s="0">
         <v>0</v>
@@ -8560,7 +8560,7 @@
         <v>0</v>
       </c>
       <c r="BM41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN41" s="0">
         <v>0</v>
@@ -8691,19 +8691,19 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0.92005224109301986</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0.52279490228101155</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.71909212608410111</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0.79387891212352302</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8792,13 +8792,13 @@
         <v>0</v>
       </c>
       <c r="E43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="0">
         <v>0</v>
       </c>
       <c r="G43" s="0">
-        <v>0</v>
+        <v>0.79698906394168301</v>
       </c>
       <c r="H43" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0.95929510127961448</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.83303737433683045</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>0</v>
+        <v>0.63017718182791682</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8969,7 +8969,7 @@
         <v>0</v>
       </c>
       <c r="BL43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM43" s="0">
         <v>0</v>
@@ -9079,7 +9079,7 @@
         <v>0</v>
       </c>
       <c r="AF44" s="0">
-        <v>0</v>
+        <v>0.73266437508713711</v>
       </c>
       <c r="AG44" s="0">
         <v>0</v>
@@ -9088,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="AI44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ44" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0.56789192649224418</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>0</v>
+        <v>0.50200275796508809</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0</v>
+        <v>0.52021129975811964</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0.53126947278155545</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0.97086342085046184</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9351,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="BB45" s="0">
-        <v>0</v>
+        <v>0.53710545832373902</v>
       </c>
       <c r="BC45" s="0">
         <v>0</v>
@@ -9390,7 +9390,7 @@
         <v>0</v>
       </c>
       <c r="BO45" s="0">
-        <v>0</v>
+        <v>0.7211623981624169</v>
       </c>
       <c r="BP45" s="0">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="0">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="AI46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ46" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0</v>
+        <v>0.63380223421014581</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0.79177284795520064</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0</v>
+        <v>0.92412859733278918</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0.68482623487574812</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" s="0">
         <v>0</v>
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="AI47" s="0">
-        <v>0</v>
+        <v>0.68177284170478025</v>
       </c>
       <c r="AJ47" s="0">
         <v>0</v>
@@ -9736,22 +9736,22 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0.77466132569267554</v>
       </c>
       <c r="AT47" s="0">
-        <v>0</v>
+        <v>0.60588993942704028</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0</v>
+        <v>0.86358813657389533</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0.76676038190039342</v>
       </c>
       <c r="AX47" s="0">
-        <v>0</v>
+        <v>0.65798118262280503</v>
       </c>
       <c r="AY47" s="0">
         <v>0</v>
@@ -9766,7 +9766,7 @@
         <v>0</v>
       </c>
       <c r="BC47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD47" s="0">
         <v>0</v>
@@ -9888,13 +9888,13 @@
         <v>0</v>
       </c>
       <c r="AA48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB48" s="0">
         <v>0</v>
       </c>
       <c r="AC48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD48" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0.66600710516885342</v>
       </c>
       <c r="AU48" s="0">
-        <v>0</v>
+        <v>0.57538666594290877</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0</v>
+        <v>0.70298966372946092</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="BB48" s="0">
-        <v>0</v>
+        <v>0.87151011558997626</v>
       </c>
       <c r="BC48" s="0">
         <v>0</v>
@@ -10058,7 +10058,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="0">
-        <v>0</v>
+        <v>0.91139951938420571</v>
       </c>
       <c r="P49" s="0">
         <v>0</v>
@@ -10094,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="AA49" s="0">
-        <v>0</v>
+        <v>0.85803169814841551</v>
       </c>
       <c r="AB49" s="0">
         <v>0</v>
@@ -10136,7 +10136,7 @@
         <v>0</v>
       </c>
       <c r="AO49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP49" s="0">
         <v>0</v>
@@ -10154,16 +10154,16 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0.7822818612671032</v>
       </c>
       <c r="AV49" s="0">
-        <v>0</v>
+        <v>0.64956057100619324</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0.51130241179746494</v>
       </c>
       <c r="AY49" s="0">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="BG49" s="0">
-        <v>0</v>
+        <v>0.85010431634660422</v>
       </c>
       <c r="BH49" s="0">
         <v>0</v>
@@ -10228,7 +10228,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" s="0">
         <v>0</v>
@@ -10249,7 +10249,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="0">
         <v>0</v>
@@ -10315,7 +10315,7 @@
         <v>0</v>
       </c>
       <c r="AF50" s="0">
-        <v>0</v>
+        <v>0.73454926168710621</v>
       </c>
       <c r="AG50" s="0">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>0</v>
       </c>
       <c r="AU50" s="0">
-        <v>0</v>
+        <v>0.60790028259876649</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0.98933409445660181</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
@@ -10375,13 +10375,13 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
       </c>
       <c r="BB50" s="0">
-        <v>0</v>
+        <v>0.85410221171185607</v>
       </c>
       <c r="BC50" s="0">
         <v>0</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="0">
-        <v>0</v>
+        <v>0.76252771582404311</v>
       </c>
       <c r="F51" s="0">
         <v>0</v>
@@ -10581,10 +10581,10 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0.87936828843467463</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0.51624364001343592</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10634,7 +10634,7 @@
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0</v>
+        <v>0.9282672939276414</v>
       </c>
       <c r="B52" s="0">
         <v>0</v>
@@ -10730,7 +10730,7 @@
         <v>0</v>
       </c>
       <c r="AG52" s="0">
-        <v>0</v>
+        <v>0.78698135928509583</v>
       </c>
       <c r="AH52" s="0">
         <v>0</v>
@@ -10781,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0.95724999405877575</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0.93493056544007724</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10990,19 +10990,19 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0.92047835839830494</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0.62250885227272557</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0.98793559689048671</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11076,7 +11076,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" s="0">
         <v>0</v>
@@ -11178,7 +11178,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="0">
-        <v>0</v>
+        <v>0.93359786164109138</v>
       </c>
       <c r="AT54" s="0">
         <v>0</v>
@@ -11187,31 +11187,31 @@
         <v>0</v>
       </c>
       <c r="AV54" s="0">
-        <v>0</v>
+        <v>0.807896658977445</v>
       </c>
       <c r="AW54" s="0">
         <v>0</v>
       </c>
       <c r="AX54" s="0">
-        <v>0</v>
+        <v>0.62851736559412719</v>
       </c>
       <c r="AY54" s="0">
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0.95808087247843687</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0.74911093706547338</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0.82852914186642712</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="BH54" s="0">
-        <v>0</v>
+        <v>0.96197854012218453</v>
       </c>
       <c r="BI54" s="0">
         <v>0</v>
@@ -11252,7 +11252,7 @@
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0</v>
+        <v>0.89313939542188803</v>
       </c>
       <c r="B55" s="0">
         <v>0</v>
@@ -11351,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="AH55" s="0">
-        <v>0</v>
+        <v>0.91624845697740875</v>
       </c>
       <c r="AI55" s="0">
         <v>0</v>
@@ -11366,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="AM55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN55" s="0">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="AU55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV55" s="0">
         <v>0</v>
@@ -11408,10 +11408,10 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0.68979324064685021</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0.73019627349004934</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>0</v>
+        <v>0.65799167921624457</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC56" s="0">
         <v>0</v>
@@ -11626,10 +11626,10 @@
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0.73348319270579276</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0.80700318198499299</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="BP56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="0">
-        <v>0</v>
+        <v>0.56051380661364902</v>
       </c>
       <c r="L57" s="0">
         <v>0</v>
@@ -11733,19 +11733,19 @@
         <v>0</v>
       </c>
       <c r="X57" s="0">
-        <v>0</v>
+        <v>0.508140199095787</v>
       </c>
       <c r="Y57" s="0">
         <v>0</v>
       </c>
       <c r="Z57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="0">
         <v>0</v>
       </c>
       <c r="AB57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC57" s="0">
         <v>0</v>
@@ -11826,16 +11826,16 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0</v>
+        <v>0.92999950034804568</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0.67153929524519596</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0</v>
+        <v>0.92584770316919851</v>
       </c>
       <c r="BG57" s="0">
         <v>0</v>
@@ -11915,7 +11915,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="0">
         <v>0</v>
@@ -12035,19 +12035,19 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0.92970672461887571</v>
       </c>
       <c r="BE58" s="0">
-        <v>0</v>
+        <v>0.60333254303815953</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0.76259118763749623</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0.73967553222139992</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" s="0">
         <v>0</v>
@@ -12139,7 +12139,7 @@
         <v>0</v>
       </c>
       <c r="V59" s="0">
-        <v>0</v>
+        <v>0.84607543474482427</v>
       </c>
       <c r="W59" s="0">
         <v>0</v>
@@ -12193,7 +12193,7 @@
         <v>0</v>
       </c>
       <c r="AN59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO59" s="0">
         <v>0</v>
@@ -12220,7 +12220,7 @@
         <v>0</v>
       </c>
       <c r="AW59" s="0">
-        <v>0</v>
+        <v>0.56648377559913898</v>
       </c>
       <c r="AX59" s="0">
         <v>0</v>
@@ -12247,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0.97239419852927</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
@@ -12256,7 +12256,7 @@
         <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0.60674150423079887</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12294,7 +12294,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="0">
-        <v>0</v>
+        <v>0.51035459075229439</v>
       </c>
       <c r="F60" s="0">
         <v>0</v>
@@ -12441,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="BB60" s="0">
-        <v>0</v>
+        <v>0.71892571673771299</v>
       </c>
       <c r="BC60" s="0">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0.89788049810998327</v>
       </c>
       <c r="BG60" s="0">
         <v>0</v>
@@ -12462,10 +12462,10 @@
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12477,7 +12477,7 @@
         <v>0</v>
       </c>
       <c r="BN60" s="0">
-        <v>0</v>
+        <v>0.96883800190332359</v>
       </c>
       <c r="BO60" s="0">
         <v>0</v>
@@ -12515,7 +12515,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="0">
-        <v>0</v>
+        <v>0.67230629378271312</v>
       </c>
       <c r="K61" s="0">
         <v>0</v>
@@ -12662,19 +12662,19 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0.98573330283580107</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.72149462702008826</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0.859563396035814</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12871,19 +12871,19 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.84484338302922635</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0.95992265239625885</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0.6650307497901744</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12906,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" s="0">
         <v>0</v>
@@ -12939,7 +12939,7 @@
         <v>0</v>
       </c>
       <c r="N63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63" s="0">
         <v>0</v>
@@ -13002,7 +13002,7 @@
         <v>0</v>
       </c>
       <c r="AI63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ63" s="0">
         <v>0</v>
@@ -13080,19 +13080,19 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0.98351971278973571</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0.57552188483453937</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0.54833494168681696</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0.55341894379852929</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="0">
-        <v>0</v>
+        <v>0.62425620828102635</v>
       </c>
       <c r="H64" s="0">
         <v>0</v>
@@ -13220,7 +13220,7 @@
         <v>0</v>
       </c>
       <c r="AM64" s="0">
-        <v>0</v>
+        <v>0.74216797839471771</v>
       </c>
       <c r="AN64" s="0">
         <v>0</v>
@@ -13232,7 +13232,7 @@
         <v>0</v>
       </c>
       <c r="AQ64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR64" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0.95908537270905792</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0.9683051922340149</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>0</v>
+        <v>0.85328204507452421</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13357,7 +13357,7 @@
         <v>0</v>
       </c>
       <c r="P65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="0">
         <v>0</v>
@@ -13432,7 +13432,7 @@
         <v>0</v>
       </c>
       <c r="AO65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP65" s="0">
         <v>0</v>
@@ -13498,19 +13498,19 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0.70224094171370499</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0</v>
+        <v>0.50722792720652521</v>
       </c>
       <c r="BO65" s="0">
-        <v>0</v>
+        <v>0.76140502669641807</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13554,22 +13554,22 @@
         <v>0</v>
       </c>
       <c r="M66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66" s="0">
-        <v>0</v>
+        <v>0.81550976530504493</v>
       </c>
       <c r="O66" s="0">
         <v>0</v>
       </c>
       <c r="P66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="0">
         <v>0</v>
       </c>
       <c r="R66" s="0">
-        <v>0</v>
+        <v>0.99329832181440836</v>
       </c>
       <c r="S66" s="0">
         <v>0</v>
@@ -13695,7 +13695,7 @@
         <v>0</v>
       </c>
       <c r="BH66" s="0">
-        <v>0</v>
+        <v>0.79213071356530784</v>
       </c>
       <c r="BI66" s="0">
         <v>0</v>
@@ -13707,16 +13707,16 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0</v>
+        <v>0.59476737220597053</v>
       </c>
       <c r="BM66" s="0">
-        <v>0</v>
+        <v>0.92243021816937776</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP66" s="0">
         <v>0</v>
@@ -13748,7 +13748,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" s="0">
         <v>0</v>
@@ -13856,7 +13856,7 @@
         <v>0</v>
       </c>
       <c r="AS67" s="0">
-        <v>0</v>
+        <v>0.74401422389922489</v>
       </c>
       <c r="AT67" s="0">
         <v>0</v>
@@ -13916,24 +13916,24 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0</v>
+        <v>0.6502065135537517</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0.64566318330739136</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0</v>
+        <v>0.94121117777457197</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0.51946678274378877</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -13978,7 +13978,7 @@
         <v>0</v>
       </c>
       <c r="Q68" s="0">
-        <v>0</v>
+        <v>0.83265491746081421</v>
       </c>
       <c r="R68" s="0">
         <v>0</v>
@@ -14032,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="AI68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ68" s="0">
         <v>0</v>
@@ -14095,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="BD68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE68" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0.99078382575789536</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject15.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject15.xlsx
@@ -281,7 +281,7 @@
         <v>0</v>
       </c>
       <c r="AZ1" s="0">
-        <v>0.52356101908293506</v>
+        <v>0.9282672939276414</v>
       </c>
       <c r="BA1" s="0">
         <v>0</v>
@@ -290,7 +290,7 @@
         <v>0</v>
       </c>
       <c r="BC1" s="0">
-        <v>0.81565001018099181</v>
+        <v>0.89313939542188803</v>
       </c>
       <c r="BD1" s="0">
         <v>0</v>
@@ -329,12 +329,12 @@
         <v>0</v>
       </c>
       <c r="BP1" s="0">
-        <v>0.63080802881744136</v>
+        <v>0.94121117777457197</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.7813735760883096</v>
+        <v>0.99800389874655604</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -343,7 +343,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>0.86534691398864649</v>
+        <v>0.89747708800335468</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.51975820591931776</v>
+        <v>0.91956940906341222</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.78884404528224117</v>
+        <v>0.85558679932231008</v>
       </c>
       <c r="E3" s="0">
         <v>0.70090550600508728</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>0.92767844014155032</v>
+        <v>0.99914076759258619</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="AI4" s="0">
-        <v>0.50993340904091555</v>
+        <v>0.58230124119830595</v>
       </c>
       <c r="AJ4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.65252022449982738</v>
+        <v>0.70090550600508728</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>0.85154001310577798</v>
+        <v>0.89346422619533672</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>0.89346422619533672</v>
       </c>
       <c r="F7" s="0">
-        <v>0.58810795693035312</v>
+        <v>0.78215171857753041</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0.82593448234308053</v>
+        <v>0.98915500464602002</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="0">
-        <v>0.98283053657728958</v>
+        <v>0.99014877737842566</v>
       </c>
       <c r="W7" s="0">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="AQ7" s="0">
-        <v>0.59809972824730884</v>
+        <v>0.79698906394168301</v>
       </c>
       <c r="AR7" s="0">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="BL7" s="0">
-        <v>0.60025552360789358</v>
+        <v>0.62425620828102635</v>
       </c>
       <c r="BM7" s="0">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0.52665449110946327</v>
+        <v>0.57582147103865178</v>
       </c>
       <c r="J8" s="0">
         <v>0.97442870805484194</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.90921328384832933</v>
+        <v>0.97442870805484194</v>
       </c>
       <c r="I10" s="0">
-        <v>0.50019751263494239</v>
+        <v>0.81370635863887131</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="BI10" s="0">
-        <v>0.50941422811977721</v>
+        <v>0.67230629378271312</v>
       </c>
       <c r="BJ10" s="0">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="0">
-        <v>0.56250497338706507</v>
+        <v>0.59135786781686517</v>
       </c>
       <c r="G11" s="0">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0.56233165548172237</v>
+        <v>0.72826355286717925</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
@@ -2430,10 +2430,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0.63673903076673499</v>
+        <v>0.93946845063648299</v>
       </c>
       <c r="N12" s="0">
-        <v>0.76367823913134469</v>
+        <v>0.98768764147763077</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="0">
-        <v>0.91135416941902525</v>
+        <v>0.94696709222551245</v>
       </c>
       <c r="T12" s="0">
         <v>0</v>
@@ -2639,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.6203511213475672</v>
+        <v>0.97278893960390089</v>
       </c>
       <c r="O13" s="0">
-        <v>0.53788026759005503</v>
+        <v>0.5891077961554233</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="AH13" s="0">
-        <v>0.62201045924989651</v>
+        <v>0.80572600767189728</v>
       </c>
       <c r="AI13" s="0">
         <v>0</v>
@@ -2899,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="AF14" s="0">
-        <v>0.72639908930873398</v>
+        <v>0.98096953672310272</v>
       </c>
       <c r="AG14" s="0">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="BN14" s="0">
-        <v>0.72506476399607545</v>
+        <v>0.81550976530504493</v>
       </c>
       <c r="BO14" s="0">
         <v>0</v>
@@ -3051,13 +3051,13 @@
         <v>0.5891077961554233</v>
       </c>
       <c r="N15" s="0">
-        <v>0.9178717926436446</v>
+        <v>0.92903291863993187</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>0.87914404577499694</v>
+        <v>0.92043240866822296</v>
       </c>
       <c r="Q15" s="0">
         <v>0.82867412729060907</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="AW15" s="0">
-        <v>0.73463464661251898</v>
+        <v>0.91139951938420571</v>
       </c>
       <c r="AX15" s="0">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.57521332355181998</v>
+        <v>0.78327874060529323</v>
       </c>
       <c r="R16" s="0">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="AM16" s="0">
-        <v>0.63285893871190746</v>
+        <v>0.84053789440823001</v>
       </c>
       <c r="AN16" s="0">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0.59610640140801441</v>
+        <v>0.82867412729060907</v>
       </c>
       <c r="P17" s="0">
         <v>0.78327874060529323</v>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="BP17" s="0">
-        <v>0.56599725334101048</v>
+        <v>0.83265491746081421</v>
       </c>
     </row>
     <row r="18">
@@ -3678,13 +3678,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.53718360612160676</v>
+        <v>0.58744350487491248</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0.55767427339643283</v>
+        <v>0.86159561540376584</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="BN18" s="0">
-        <v>0.58264710022585775</v>
+        <v>0.99329832181440836</v>
       </c>
       <c r="BO18" s="0">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>0.62097284455669932</v>
+        <v>0.88718304305517748</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -4305,7 +4305,7 @@
         <v>0.88718304305517748</v>
       </c>
       <c r="T21" s="0">
-        <v>0.60916256590391071</v>
+        <v>0.98247597010592225</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
@@ -4511,16 +4511,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0.71336933069057007</v>
+        <v>0.87034863654915007</v>
       </c>
       <c r="U22" s="0">
-        <v>0.51872043759791986</v>
+        <v>0.65430581391238751</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0.74369267780023318</v>
+        <v>0.84307581280897748</v>
       </c>
       <c r="X22" s="0">
         <v>0</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="BG22" s="0">
-        <v>0.8440965065107624</v>
+        <v>0.84607543474482427</v>
       </c>
       <c r="BH22" s="0">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0.72051057484285685</v>
+        <v>0.72366701116183196</v>
       </c>
       <c r="V23" s="0">
         <v>0.84307581280897748</v>
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="AF23" s="0">
-        <v>0.59972603266365065</v>
+        <v>0.60317504778448594</v>
       </c>
       <c r="AG23" s="0">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>0.60980111126561942</v>
+        <v>0.65106751142542085</v>
       </c>
       <c r="X25" s="0">
         <v>0</v>
@@ -5150,7 +5150,7 @@
         <v>0.82602411252759311</v>
       </c>
       <c r="AA25" s="0">
-        <v>0.50757395920496962</v>
+        <v>0.87622574375404461</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5347,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>0.73243650070031574</v>
+        <v>0.83547931422793864</v>
       </c>
       <c r="Y26" s="0">
-        <v>0.70308753097879018</v>
+        <v>0.82602411252759311</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>0.79643681909913044</v>
       </c>
       <c r="AB26" s="0">
-        <v>0.79459849699854845</v>
+        <v>0.88783556149878085</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0.87622574375404461</v>
       </c>
       <c r="Z27" s="0">
-        <v>0.72769673936959522</v>
+        <v>0.79643681909913044</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.71521724011527588</v>
+        <v>0.76977543738494325</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="AW27" s="0">
-        <v>0.70142521245659162</v>
+        <v>0.85803169814841551</v>
       </c>
       <c r="AX27" s="0">
         <v>0</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0.92558091867663617</v>
+        <v>0.96868095636096907</v>
       </c>
       <c r="AD28" s="0">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="AO28" s="0">
-        <v>0.80176957138932048</v>
+        <v>0.93126653365118595</v>
       </c>
       <c r="AP28" s="0">
         <v>0</v>
@@ -6186,16 +6186,16 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>0.50927801732015954</v>
+        <v>0.71895950118733443</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0.6449613249259496</v>
+        <v>0.87630119236813964</v>
       </c>
       <c r="AF30" s="0">
-        <v>0.70193914024598059</v>
+        <v>0.91942690341689082</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6362,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="0">
-        <v>0.61346623118333365</v>
+        <v>0.79026508947704288</v>
       </c>
       <c r="T31" s="0">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.56589516059439449</v>
+        <v>0.96284703719937992</v>
       </c>
       <c r="AD31" s="0">
         <v>0.87630119236813964</v>
@@ -6517,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="0">
-        <v>0.72974876059083948</v>
+        <v>0.73869846457744526</v>
       </c>
       <c r="C32" s="0">
         <v>0</v>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0.55316282535158168</v>
+        <v>0.64492639066729396</v>
       </c>
       <c r="AH32" s="0">
         <v>0</v>
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="AR32" s="0">
-        <v>0.66036115520196326</v>
+        <v>0.73266437508713711</v>
       </c>
       <c r="AS32" s="0">
         <v>0</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0.82435088770238829</v>
+        <v>0.88854474572399489</v>
       </c>
       <c r="AF33" s="0">
         <v>0.64492639066729396</v>
@@ -6873,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="AZ33" s="0">
-        <v>0.7669036203054922</v>
+        <v>0.78698135928509583</v>
       </c>
       <c r="BA33" s="0">
         <v>0</v>
@@ -7088,7 +7088,7 @@
         <v>0</v>
       </c>
       <c r="BC34" s="0">
-        <v>0.89010704102261395</v>
+        <v>0.91624845697740875</v>
       </c>
       <c r="BD34" s="0">
         <v>0</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0.69635991124967767</v>
+        <v>0.93969857976078974</v>
       </c>
       <c r="AH35" s="0">
         <v>0</v>
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="AU35" s="0">
-        <v>0.64287801356959173</v>
+        <v>0.68177284170478025</v>
       </c>
       <c r="AV35" s="0">
         <v>0</v>
@@ -7416,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="AA36" s="0">
-        <v>0.53864714315944995</v>
+        <v>0.71242730293447054</v>
       </c>
       <c r="AB36" s="0">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0.55184685086777319</v>
+        <v>0.7854452579590151</v>
       </c>
       <c r="AI36" s="0">
         <v>0</v>
@@ -7574,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="0">
-        <v>0.67944240583616322</v>
+        <v>0.87541473987192786</v>
       </c>
       <c r="L37" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0.63283391335435568</v>
+        <v>0.94779997319838682</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>0.98484071412053331</v>
       </c>
       <c r="AM37" s="0">
-        <v>0.58890301215153196</v>
+        <v>0.7938940162496384</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7777,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="0">
-        <v>0.6886382215144935</v>
+        <v>0.93763259821355138</v>
       </c>
       <c r="K38" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0.87344005570639172</v>
+        <v>0.91019130103063461</v>
       </c>
       <c r="AK38" s="0">
-        <v>0.87488746245957627</v>
+        <v>0.98484071412053331</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0.62139169824712182</v>
+        <v>0.69432201520450798</v>
       </c>
       <c r="AN38" s="0">
-        <v>0.65833314371755924</v>
+        <v>0.91966266733704805</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0.71569251983808591</v>
+        <v>0.82657182229935011</v>
       </c>
       <c r="AO39" s="0">
         <v>0</v>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0.67799394807723612</v>
+        <v>0.92888262525691179</v>
       </c>
       <c r="AP40" s="0">
         <v>0.9288715518210422</v>
@@ -8494,7 +8494,7 @@
         <v>0.92762746238120997</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0.79382429913821262</v>
+        <v>0.95929510127961448</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8691,16 +8691,16 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0.92005224109301986</v>
+        <v>0.9288715518210422</v>
       </c>
       <c r="AO42" s="0">
-        <v>0.52279490228101155</v>
+        <v>0.92762746238120997</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0.71909212608410111</v>
+        <v>0.83303737433683045</v>
       </c>
       <c r="AR42" s="0">
         <v>0.79387891212352302</v>
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0.56789192649224418</v>
+        <v>0.79387891212352302</v>
       </c>
       <c r="AQ44" s="0">
         <v>0</v>
@@ -9121,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>0.50200275796508809</v>
+        <v>0.63380223421014581</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0.52021129975811964</v>
+        <v>0.63017718182791682</v>
       </c>
       <c r="AR45" s="0">
         <v>0</v>
@@ -9327,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0.53126947278155545</v>
+        <v>0.79177284795520064</v>
       </c>
       <c r="AU45" s="0">
         <v>0.97086342085046184</v>
@@ -9351,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="BB45" s="0">
-        <v>0.53710545832373902</v>
+        <v>0.93359786164109138</v>
       </c>
       <c r="BC45" s="0">
         <v>0</v>
@@ -9390,7 +9390,7 @@
         <v>0</v>
       </c>
       <c r="BO45" s="0">
-        <v>0.7211623981624169</v>
+        <v>0.74401422389922489</v>
       </c>
       <c r="BP45" s="0">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0.77466132569267554</v>
+        <v>0.97086342085046184</v>
       </c>
       <c r="AT47" s="0">
-        <v>0.60588993942704028</v>
+        <v>0.92412859733278918</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0.86358813657389533</v>
       </c>
       <c r="AW47" s="0">
-        <v>0.76676038190039342</v>
+        <v>0.7822818612671032</v>
       </c>
       <c r="AX47" s="0">
         <v>0.65798118262280503</v>
@@ -9945,10 +9945,10 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0.66600710516885342</v>
+        <v>0.68482623487574812</v>
       </c>
       <c r="AU48" s="0">
-        <v>0.57538666594290877</v>
+        <v>0.86358813657389533</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -10157,13 +10157,13 @@
         <v>0.7822818612671032</v>
       </c>
       <c r="AV49" s="0">
-        <v>0.64956057100619324</v>
+        <v>0.70298966372946092</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>0.51130241179746494</v>
+        <v>0.98933409445660181</v>
       </c>
       <c r="AY49" s="0">
         <v>0</v>
@@ -10315,7 +10315,7 @@
         <v>0</v>
       </c>
       <c r="AF50" s="0">
-        <v>0.73454926168710621</v>
+        <v>0.95451366387932279</v>
       </c>
       <c r="AG50" s="0">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="AU50" s="0">
-        <v>0.60790028259876649</v>
+        <v>0.65798118262280503</v>
       </c>
       <c r="AV50" s="0">
         <v>0</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="0">
-        <v>0.76252771582404311</v>
+        <v>0.90517501014504387</v>
       </c>
       <c r="F51" s="0">
         <v>0</v>
@@ -10581,10 +10581,10 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0.87936828843467463</v>
+        <v>0.95724999405877575</v>
       </c>
       <c r="BA51" s="0">
-        <v>0.51624364001343592</v>
+        <v>0.92047835839830494</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10793,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="BB52" s="0">
-        <v>0.93493056544007724</v>
+        <v>0.95808087247843687</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0.62250885227272557</v>
+        <v>0.74911093706547338</v>
       </c>
       <c r="BC53" s="0">
         <v>0.98793559689048671</v>
@@ -11187,13 +11187,13 @@
         <v>0</v>
       </c>
       <c r="AV54" s="0">
-        <v>0.807896658977445</v>
+        <v>0.87151011558997626</v>
       </c>
       <c r="AW54" s="0">
         <v>0</v>
       </c>
       <c r="AX54" s="0">
-        <v>0.62851736559412719</v>
+        <v>0.85410221171185607</v>
       </c>
       <c r="AY54" s="0">
         <v>0</v>
@@ -11408,10 +11408,10 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>0.68979324064685021</v>
+        <v>0.98793559689048671</v>
       </c>
       <c r="BB55" s="0">
-        <v>0.73019627349004934</v>
+        <v>0.82852914186642712</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>0.65799167921624457</v>
+        <v>0.92999950034804568</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11629,7 +11629,7 @@
         <v>0.73348319270579276</v>
       </c>
       <c r="BF56" s="0">
-        <v>0.80700318198499299</v>
+        <v>0.92970672461887571</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="0">
-        <v>0.56051380661364902</v>
+        <v>0.62391189494184185</v>
       </c>
       <c r="L57" s="0">
         <v>0</v>
@@ -11733,7 +11733,7 @@
         <v>0</v>
       </c>
       <c r="X57" s="0">
-        <v>0.508140199095787</v>
+        <v>0.74469370597889528</v>
       </c>
       <c r="Y57" s="0">
         <v>0</v>
@@ -11829,7 +11829,7 @@
         <v>0.92999950034804568</v>
       </c>
       <c r="BD57" s="0">
-        <v>0.67153929524519596</v>
+        <v>0.73348319270579276</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -12038,16 +12038,16 @@
         <v>0.92970672461887571</v>
       </c>
       <c r="BE58" s="0">
-        <v>0.60333254303815953</v>
+        <v>0.92584770316919851</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0.76259118763749623</v>
+        <v>0.97239419852927</v>
       </c>
       <c r="BH58" s="0">
-        <v>0.73967553222139992</v>
+        <v>0.89788049810998327</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12220,7 +12220,7 @@
         <v>0</v>
       </c>
       <c r="AW59" s="0">
-        <v>0.56648377559913898</v>
+        <v>0.85010431634660422</v>
       </c>
       <c r="AX59" s="0">
         <v>0</v>
@@ -12256,7 +12256,7 @@
         <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>0.60674150423079887</v>
+        <v>0.98573330283580107</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12294,7 +12294,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="0">
-        <v>0.51035459075229439</v>
+        <v>0.55867823165764396</v>
       </c>
       <c r="F60" s="0">
         <v>0</v>
@@ -12441,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="BB60" s="0">
-        <v>0.71892571673771299</v>
+        <v>0.96197854012218453</v>
       </c>
       <c r="BC60" s="0">
         <v>0</v>
@@ -12671,10 +12671,10 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.72149462702008826</v>
+        <v>0.84484338302922635</v>
       </c>
       <c r="BK61" s="0">
-        <v>0.859563396035814</v>
+        <v>0.98351971278973571</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0.95992265239625885</v>
       </c>
       <c r="BL62" s="0">
-        <v>0.6650307497901744</v>
+        <v>0.95908537270905792</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -13083,16 +13083,16 @@
         <v>0.98351971278973571</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0.57552188483453937</v>
+        <v>0.95992265239625885</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0.54833494168681696</v>
+        <v>0.9683051922340149</v>
       </c>
       <c r="BM63" s="0">
-        <v>0.55341894379852929</v>
+        <v>0.70224094171370499</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13220,7 +13220,7 @@
         <v>0</v>
       </c>
       <c r="AM64" s="0">
-        <v>0.74216797839471771</v>
+        <v>0.82510945154178428</v>
       </c>
       <c r="AN64" s="0">
         <v>0</v>
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0.50722792720652521</v>
+        <v>0.92243021816937776</v>
       </c>
       <c r="BO65" s="0">
         <v>0.76140502669641807</v>
@@ -13695,7 +13695,7 @@
         <v>0</v>
       </c>
       <c r="BH66" s="0">
-        <v>0.79213071356530784</v>
+        <v>0.96883800190332359</v>
       </c>
       <c r="BI66" s="0">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0.59476737220597053</v>
+        <v>0.85328204507452421</v>
       </c>
       <c r="BM66" s="0">
         <v>0.92243021816937776</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0.6502065135537517</v>
+        <v>0.76140502669641807</v>
       </c>
       <c r="BN67" s="0">
         <v>0</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0.64566318330739136</v>
+        <v>0.99078382575789536</v>
       </c>
     </row>
     <row r="68">
@@ -13933,7 +13933,7 @@
         <v>0.94121117777457197</v>
       </c>
       <c r="B68" s="0">
-        <v>0.51946678274378877</v>
+        <v>0.63781044040291657</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
